--- a/日报、周报).xlsx
+++ b/日报、周报).xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7131" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7133" uniqueCount="407">
   <si>
     <t>组员</t>
   </si>
@@ -3648,6 +3648,10 @@
     <t>周四6/11</t>
   </si>
   <si>
+    <t>运营商品的标题、规格和贴图模板核对(今日无进入核对规格流程的SPU)
+联调50% ，自测30%</t>
+  </si>
+  <si>
     <t>周五6/12</t>
   </si>
   <si>
@@ -3792,9 +3796,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -3844,21 +3848,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3871,16 +3861,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3895,62 +3878,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3964,9 +3892,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3982,6 +3924,68 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4008,7 +4012,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4020,13 +4036,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4044,37 +4138,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4086,109 +4186,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4399,11 +4403,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4419,6 +4438,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4440,24 +4483,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -4467,32 +4492,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4504,10 +4508,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4516,133 +4520,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -43825,8 +43829,8 @@
   <sheetPr/>
   <dimension ref="A1:J221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C204" workbookViewId="0">
-      <selection activeCell="E221" sqref="E221:F221"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="A210" sqref="A210:J221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -46951,7 +46955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:10">
+    <row r="213" ht="14.25" spans="1:10">
       <c r="A213" s="14"/>
       <c r="B213" s="14"/>
       <c r="C213" s="15" t="s">
@@ -47075,14 +47079,18 @@
       <c r="I219" s="14"/>
       <c r="J219" s="14"/>
     </row>
-    <row r="220" ht="14.25" spans="1:10">
+    <row r="220" ht="45" customHeight="1" spans="1:10">
       <c r="A220" s="13" t="s">
         <v>372</v>
       </c>
       <c r="B220" s="14"/>
-      <c r="C220" s="38"/>
+      <c r="C220" s="38" t="s">
+        <v>370</v>
+      </c>
       <c r="D220" s="37"/>
-      <c r="E220" s="38"/>
+      <c r="E220" s="38" t="s">
+        <v>373</v>
+      </c>
       <c r="F220" s="37"/>
       <c r="G220" s="14"/>
       <c r="H220" s="14"/>
@@ -47091,7 +47099,7 @@
     </row>
     <row r="221" ht="14.25" spans="1:10">
       <c r="A221" s="13" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B221" s="14"/>
       <c r="C221" s="38"/>
@@ -47641,19 +47649,19 @@
   <sheetData>
     <row r="1" ht="15" spans="1:5">
       <c r="A1" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:5">
@@ -47661,16 +47669,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:5">
@@ -47678,16 +47686,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" ht="16.95" customHeight="1" spans="1:5">
@@ -47695,16 +47703,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" ht="29.25" spans="1:5">
@@ -47712,16 +47720,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>391</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -47751,7 +47759,7 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B1" s="2">
         <v>43931</v>
@@ -47759,51 +47767,51 @@
     </row>
     <row r="2" ht="14.25" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B2" s="2">
         <v>43934</v>
       </c>
       <c r="C2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B3" s="2">
         <v>43937</v>
       </c>
       <c r="C3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B4" s="2">
         <v>43938</v>
       </c>
       <c r="C4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" ht="75" customHeight="1" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B5" s="2">
         <v>43965</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B6" s="2">
         <v>43972</v>
@@ -47812,13 +47820,13 @@
     <row r="14" ht="14.25"/>
     <row r="15" ht="14.25" spans="4:8">
       <c r="D15" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E15" s="2">
         <v>43931</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H15" s="2">
         <v>43931</v>
@@ -47826,13 +47834,13 @@
     </row>
     <row r="16" ht="14.25" spans="4:8">
       <c r="D16" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E16" s="2">
         <v>43934</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H16" s="2">
         <v>43934</v>
@@ -47840,13 +47848,13 @@
     </row>
     <row r="17" ht="14.25" spans="4:8">
       <c r="D17" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E17" s="2">
         <v>43937</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H17" s="2">
         <v>43937</v>
@@ -47854,13 +47862,13 @@
     </row>
     <row r="18" ht="14.25" spans="4:8">
       <c r="D18" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E18" s="2">
         <v>43938</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H18" s="2">
         <v>43938</v>
@@ -47868,13 +47876,13 @@
     </row>
     <row r="19" ht="14.25" spans="4:8">
       <c r="D19" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E19" s="2">
         <v>43965</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H19" s="2">
         <v>43965</v>
@@ -47882,13 +47890,13 @@
     </row>
     <row r="20" ht="25.05" customHeight="1" spans="4:8">
       <c r="D20" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E20" s="2">
         <v>43972</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H20" s="2">
         <v>43972</v>
